--- a/final/data/grafico_verbaobito_mortalidade.xlsx
+++ b/final/data/grafico_verbaobito_mortalidade.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Desktop\MC536-Projeto\final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B851FB-AB70-4EF8-92DD-17F11C7298D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC8C355-4708-46BD-A334-CDF8CAFA9B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3EB68EBC-4763-4940-97C1-DCA7464E283E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{3EB68EBC-4763-4940-97C1-DCA7464E283E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Obitos" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>RJ</t>
   </si>
@@ -125,15 +126,24 @@
   <si>
     <t>Mortalidade</t>
   </si>
+  <si>
+    <t>Verba/Casos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,8 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +272,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$D$1</c:f>
+              <c:f>Obitos!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -291,7 +305,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$28</c:f>
+              <c:f>Obitos!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -381,7 +395,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$D$2:$D$28</c:f>
+              <c:f>Obitos!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -656,7 +670,530 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Verba/CasosX Mortalidade(%)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Casos!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verba/Casos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Casos!$C$2:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>6.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.238</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.913</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.341</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.137</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0209999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Casos!$D$2:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>227.89099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.162999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.06100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.983000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.783000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117.571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104.056</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121.33199999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.89400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.111000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.637</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.102999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123.37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>235.05699999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.569000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>174.94399999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>135.59700000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.741</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115.658</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>128.346</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>129.26499999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C5F-4F13-B5CB-6365D7AFFEBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1918907424"/>
+        <c:axId val="1918907840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1918907424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918907840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1918907840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918907424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1212,6 +1749,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1233,6 +2286,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E14747-00EC-47F6-A814-363C20AE03D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5250F7-0F03-4478-A6AD-7ECAEC308617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A522D6-363F-478F-A014-33ABC83A0BAC}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="B1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,8 +2656,8 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>27</v>
       </c>
       <c r="C1" t="s">
@@ -1573,8 +2667,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -1584,8 +2678,8 @@
         <v>3738.2235000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1595,8 +2689,8 @@
         <v>1287.5215000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
@@ -1606,8 +2700,8 @@
         <v>1390.9106999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -1617,8 +2711,8 @@
         <v>1746.6578</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -1628,8 +2722,8 @@
         <v>6023.1436999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
@@ -1639,8 +2733,8 @@
         <v>2582.0403000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -1650,8 +2744,8 @@
         <v>3043.2429000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -1661,8 +2755,8 @@
         <v>2995.0628000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
@@ -1672,8 +2766,8 @@
         <v>4879.5748999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -1683,8 +2777,8 @@
         <v>4182.4481999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -1694,8 +2788,8 @@
         <v>4551.0127000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -1705,8 +2799,8 @@
         <v>5420.9274999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -1716,8 +2810,8 @@
         <v>5370.6274000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -1727,8 +2821,8 @@
         <v>3739.1756999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
@@ -1738,8 +2832,8 @@
         <v>2962.8177999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -1749,8 +2843,8 @@
         <v>5168.5518000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
@@ -1760,8 +2854,8 @@
         <v>3568.5011</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19">
@@ -1771,8 +2865,8 @@
         <v>6123.5992999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
@@ -1782,8 +2876,8 @@
         <v>12038.6666</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21">
@@ -1793,8 +2887,8 @@
         <v>4677.3981999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22">
@@ -1804,8 +2898,8 @@
         <v>9147.1802000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23">
@@ -1815,8 +2909,8 @@
         <v>7955.9026000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24">
@@ -1826,8 +2920,8 @@
         <v>3395.3712999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25">
@@ -1837,8 +2931,8 @@
         <v>8222.6726999999992</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26">
@@ -1848,8 +2942,8 @@
         <v>9571.2131000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27">
@@ -1859,8 +2953,8 @@
         <v>11369.7086</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28">
@@ -1868,6 +2962,336 @@
       </c>
       <c r="D28">
         <v>1750.8063999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B664C67E-B590-4065-8C3B-3EF77CB92621}">
+  <dimension ref="B1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>227.89099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.673</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60.162999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.298</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45.872</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.097</v>
+      </c>
+      <c r="D5" s="2">
+        <v>54.094999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.6909999999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>162.06100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.677</v>
+      </c>
+      <c r="D7" s="2">
+        <v>69.116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>76.983000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>74.783000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>117.571</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>99.762</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.286</v>
+      </c>
+      <c r="D12" s="2">
+        <v>104.056</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.238</v>
+      </c>
+      <c r="D13" s="2">
+        <v>121.33199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>119.89400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>83.111000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>63.637</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>106.01</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>72.102999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>123.37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>235.05699999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>90.569000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.913</v>
+      </c>
+      <c r="D22" s="2">
+        <v>174.94399999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.704</v>
+      </c>
+      <c r="D23" s="2">
+        <v>135.59700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <v>57.741</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.407</v>
+      </c>
+      <c r="D25" s="2">
+        <v>115.658</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.341</v>
+      </c>
+      <c r="D26" s="2">
+        <v>128.346</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.137</v>
+      </c>
+      <c r="D27" s="2">
+        <v>129.26499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>17.881</v>
       </c>
     </row>
   </sheetData>
